--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
     <sheet name="학생정보 (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="학생성적정보" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="425">
   <si>
     <t>국어국문</t>
   </si>
@@ -1305,6 +1306,58 @@
   <si>
     <t>학과</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>법학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D005</t>
   </si>
 </sst>
 </file>
@@ -1645,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1661,7 +1714,7 @@
     <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -1680,8 +1733,11 @@
       <c r="F1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>404</v>
       </c>
@@ -1696,13 +1752,17 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="str">
+        <f>VLOOKUP(F2,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>400</v>
       </c>
@@ -1717,13 +1777,17 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="str">
+        <f>VLOOKUP(F3,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>396</v>
       </c>
@@ -1743,8 +1807,12 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="str">
+        <f>VLOOKUP(F4,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>392</v>
       </c>
@@ -1764,8 +1832,12 @@
       <c r="F5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="str">
+        <f>VLOOKUP(F5,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>388</v>
       </c>
@@ -1780,13 +1852,17 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="str">
+        <f>VLOOKUP(F6,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>384</v>
       </c>
@@ -1801,13 +1877,17 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="str">
+        <f>VLOOKUP(F7,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>380</v>
       </c>
@@ -1822,13 +1902,17 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="str">
+        <f>VLOOKUP(F8,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
@@ -1843,13 +1927,17 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="str">
+        <f>VLOOKUP(F9,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>372</v>
       </c>
@@ -1864,13 +1952,17 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="str">
+        <f>VLOOKUP(F10,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>368</v>
       </c>
@@ -1890,8 +1982,12 @@
       <c r="F11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="str">
+        <f>VLOOKUP(F11,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -1911,8 +2007,12 @@
       <c r="F12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="str">
+        <f>VLOOKUP(F12,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>360</v>
       </c>
@@ -1927,13 +2027,17 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="str">
+        <f>VLOOKUP(F13,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>356</v>
       </c>
@@ -1948,13 +2052,17 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="str">
+        <f>VLOOKUP(F14,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>352</v>
       </c>
@@ -1974,8 +2082,12 @@
       <c r="F15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="str">
+        <f>VLOOKUP(F15,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>348</v>
       </c>
@@ -1990,13 +2102,17 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="str">
+        <f>VLOOKUP(F16,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>344</v>
       </c>
@@ -2011,13 +2127,17 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="str">
+        <f>VLOOKUP(F17,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>340</v>
       </c>
@@ -2032,13 +2152,17 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="str">
+        <f>VLOOKUP(F18,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>336</v>
       </c>
@@ -2053,13 +2177,17 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="str">
+        <f>VLOOKUP(F19,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>332</v>
       </c>
@@ -2079,8 +2207,12 @@
       <c r="F20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="str">
+        <f>VLOOKUP(F20,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
@@ -2095,13 +2227,17 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="str">
+        <f>VLOOKUP(F21,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>324</v>
       </c>
@@ -2116,13 +2252,17 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="str">
+        <f>VLOOKUP(F22,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>320</v>
       </c>
@@ -2142,8 +2282,12 @@
       <c r="F23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="str">
+        <f>VLOOKUP(F23,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>316</v>
       </c>
@@ -2158,13 +2302,17 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="str">
+        <f>VLOOKUP(F24,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>312</v>
       </c>
@@ -2184,8 +2332,12 @@
       <c r="F25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="str">
+        <f>VLOOKUP(F25,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>308</v>
       </c>
@@ -2200,13 +2352,17 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="str">
+        <f>VLOOKUP(F26,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>304</v>
       </c>
@@ -2221,13 +2377,17 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="str">
+        <f>VLOOKUP(F27,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
@@ -2242,13 +2402,17 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="str">
+        <f>VLOOKUP(F28,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>296</v>
       </c>
@@ -2268,8 +2432,12 @@
       <c r="F29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="str">
+        <f>VLOOKUP(F29,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>292</v>
       </c>
@@ -2284,13 +2452,17 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="str">
+        <f>VLOOKUP(F30,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
@@ -2305,13 +2477,17 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="str">
+        <f>VLOOKUP(F31,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>284</v>
       </c>
@@ -2326,13 +2502,17 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="str">
+        <f>VLOOKUP(F32,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -2347,13 +2527,17 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="str">
+        <f>VLOOKUP(F33,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
@@ -2368,13 +2552,17 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="str">
+        <f>VLOOKUP(F34,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>272</v>
       </c>
@@ -2389,13 +2577,17 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="str">
+        <f>VLOOKUP(F35,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>268</v>
       </c>
@@ -2410,13 +2602,17 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="str">
+        <f>VLOOKUP(F36,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -2431,13 +2627,17 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="str">
+        <f>VLOOKUP(F37,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>260</v>
       </c>
@@ -2452,13 +2652,17 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="str">
+        <f>VLOOKUP(F38,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -2473,13 +2677,17 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="str">
+        <f>VLOOKUP(F39,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>252</v>
       </c>
@@ -2499,8 +2707,12 @@
       <c r="F40" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="str">
+        <f>VLOOKUP(F40,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -2515,13 +2727,17 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="str">
+        <f>VLOOKUP(F41,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
@@ -2536,13 +2752,17 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="str">
+        <f>VLOOKUP(F42,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>240</v>
       </c>
@@ -2557,13 +2777,17 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="str">
+        <f>VLOOKUP(F43,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>236</v>
       </c>
@@ -2578,13 +2802,17 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="str">
+        <f>VLOOKUP(F44,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
@@ -2599,13 +2827,17 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="str">
+        <f>VLOOKUP(F45,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -2625,8 +2857,12 @@
       <c r="F46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="str">
+        <f>VLOOKUP(F46,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>224</v>
       </c>
@@ -2641,13 +2877,17 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="str">
+        <f>VLOOKUP(F47,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>220</v>
       </c>
@@ -2662,13 +2902,17 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="str">
+        <f>VLOOKUP(F48,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -2683,13 +2927,17 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="str">
+        <f>VLOOKUP(F49,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>212</v>
       </c>
@@ -2704,13 +2952,17 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="str">
+        <f>VLOOKUP(F50,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -2730,8 +2982,12 @@
       <c r="F51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="str">
+        <f>VLOOKUP(F51,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>204</v>
       </c>
@@ -2751,8 +3007,12 @@
       <c r="F52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="str">
+        <f>VLOOKUP(F52,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
@@ -2767,13 +3027,17 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="str">
+        <f>VLOOKUP(F53,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>196</v>
       </c>
@@ -2793,8 +3057,12 @@
       <c r="F54" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="str">
+        <f>VLOOKUP(F54,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
@@ -2814,8 +3082,12 @@
       <c r="F55" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="str">
+        <f>VLOOKUP(F55,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>188</v>
       </c>
@@ -2835,8 +3107,12 @@
       <c r="F56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="str">
+        <f>VLOOKUP(F56,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -2856,8 +3132,12 @@
       <c r="F57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="str">
+        <f>VLOOKUP(F57,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
@@ -2872,13 +3152,17 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="str">
+        <f>VLOOKUP(F58,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -2898,8 +3182,12 @@
       <c r="F59" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="str">
+        <f>VLOOKUP(F59,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -2914,13 +3202,17 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="str">
+        <f>VLOOKUP(F60,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -2935,13 +3227,17 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="str">
+        <f>VLOOKUP(F61,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -2956,13 +3252,17 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="str">
+        <f>VLOOKUP(F62,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>160</v>
       </c>
@@ -2977,13 +3277,17 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="str">
+        <f>VLOOKUP(F63,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -3003,8 +3307,12 @@
       <c r="F64" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="str">
+        <f>VLOOKUP(F64,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -3019,13 +3327,17 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="str">
+        <f>VLOOKUP(F65,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -3045,8 +3357,12 @@
       <c r="F66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="str">
+        <f>VLOOKUP(F66,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
@@ -3066,8 +3382,12 @@
       <c r="F67" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="str">
+        <f>VLOOKUP(F67,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -3082,13 +3402,17 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="str">
+        <f>VLOOKUP(F68,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -3108,8 +3432,12 @@
       <c r="F69" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="str">
+        <f>VLOOKUP(F69,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -3124,13 +3452,17 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="str">
+        <f>VLOOKUP(F70,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -3145,13 +3477,17 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="str">
+        <f>VLOOKUP(F71,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -3171,8 +3507,12 @@
       <c r="F72" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="str">
+        <f>VLOOKUP(F72,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
@@ -3187,13 +3527,17 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="str">
+        <f>VLOOKUP(F73,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
@@ -3208,13 +3552,17 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="str">
+        <f>VLOOKUP(F74,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -3229,13 +3577,17 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="str">
+        <f>VLOOKUP(F75,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
@@ -3255,8 +3607,12 @@
       <c r="F76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="str">
+        <f>VLOOKUP(F76,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -3276,8 +3632,12 @@
       <c r="F77" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="str">
+        <f>VLOOKUP(F77,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
@@ -3292,13 +3652,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="str">
+        <f>VLOOKUP(F78,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -3313,13 +3677,17 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="str">
+        <f>VLOOKUP(F79,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -3339,8 +3707,12 @@
       <c r="F80" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="str">
+        <f>VLOOKUP(F80,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -3355,13 +3727,17 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="str">
+        <f>VLOOKUP(F81,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -3376,13 +3752,17 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="str">
+        <f>VLOOKUP(F82,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -3402,8 +3782,12 @@
       <c r="F83" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="str">
+        <f>VLOOKUP(F83,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3807,12 @@
       <c r="F84" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="str">
+        <f>VLOOKUP(F84,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -3439,13 +3827,17 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="str">
+        <f>VLOOKUP(F85,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
@@ -3460,13 +3852,17 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="str">
+        <f>VLOOKUP(F86,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
@@ -3481,13 +3877,17 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="str">
+        <f>VLOOKUP(F87,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
@@ -3502,13 +3902,17 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="str">
+        <f>VLOOKUP(F88,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
@@ -3523,13 +3927,17 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="str">
+        <f>VLOOKUP(F89,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
@@ -3544,13 +3952,17 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="str">
+        <f>VLOOKUP(F90,Sheet1!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
@@ -3570,8 +3982,12 @@
       <c r="F91" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="str">
+        <f>VLOOKUP(F91,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -3586,13 +4002,17 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="str">
+        <f>VLOOKUP(F92,Sheet1!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
@@ -3607,13 +4027,17 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="str">
+        <f>VLOOKUP(F93,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
@@ -3628,13 +4052,17 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="str">
+        <f>VLOOKUP(F94,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>30</v>
       </c>
@@ -3649,13 +4077,17 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="str">
+        <f>VLOOKUP(F95,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
@@ -3670,13 +4102,17 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="str">
+        <f>VLOOKUP(F96,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
@@ -3691,13 +4127,17 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="str">
+        <f>VLOOKUP(F97,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -3712,13 +4152,17 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="str">
+        <f>VLOOKUP(F98,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -3733,13 +4177,17 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="str">
+        <f>VLOOKUP(F99,Sheet1!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -3759,8 +4207,12 @@
       <c r="F100" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="str">
+        <f>VLOOKUP(F100,Sheet1!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -3775,10 +4227,14 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <f>VLOOKUP(F101,Sheet1!$A$1:$B$5,2)</f>
+        <v>D002</v>
       </c>
     </row>
   </sheetData>
@@ -3793,7 +4249,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3835,14 +4291,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(100000,99999999),"-0000-0000")</f>
-        <v>010-7325-0978</v>
+        <v>010-3088-2988</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -3857,14 +4313,14 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(100000,99999999),"-0000-0000")</f>
-        <v>010-9559-5390</v>
+        <v>010-2049-3299</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>397</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -3879,14 +4335,14 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3925-7404</v>
+        <v>010-6861-9593</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>393</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -3901,14 +4357,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1801-6044</v>
+        <v>010-1909-2004</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>389</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -3923,7 +4379,7 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4291-1996</v>
+        <v>010-0538-0229</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>385</v>
@@ -3945,14 +4401,14 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2321-8298</v>
+        <v>010-3452-6413</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>381</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -3967,7 +4423,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0678-8887</v>
+        <v>010-1659-2101</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>377</v>
@@ -3989,7 +4445,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3006-1643</v>
+        <v>010-0404-2398</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>373</v>
@@ -4011,14 +4467,14 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1226-8882</v>
+        <v>010-3943-8769</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>369</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4033,14 +4489,14 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9230-5206</v>
+        <v>010-3632-7263</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>365</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -4055,14 +4511,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5947-7277</v>
+        <v>010-3450-7027</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>361</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4077,14 +4533,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3787-0125</v>
+        <v>010-3669-3212</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>357</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4099,7 +4555,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4835-9901</v>
+        <v>010-9948-1343</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>353</v>
@@ -4121,14 +4577,14 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2447-4573</v>
+        <v>010-8848-2252</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4143,14 +4599,14 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3670-6896</v>
+        <v>010-3204-4105</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>345</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4165,7 +4621,7 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0468-7434</v>
+        <v>010-0462-6054</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>341</v>
@@ -4187,7 +4643,7 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8927-5892</v>
+        <v>010-1761-0431</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
@@ -4209,14 +4665,14 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9971-6566</v>
+        <v>010-0102-3611</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4231,14 +4687,14 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1221-7471</v>
+        <v>010-6079-2081</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4253,7 +4709,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7368-8735</v>
+        <v>010-5227-4671</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
@@ -4275,7 +4731,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5050-5035</v>
+        <v>010-7653-5705</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
@@ -4297,7 +4753,7 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8108-2257</v>
+        <v>010-0245-3380</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
@@ -4319,14 +4775,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4367-7217</v>
+        <v>010-9943-5686</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4341,14 +4797,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7590-5438</v>
+        <v>010-1368-2483</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4363,14 +4819,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1111-1946</v>
+        <v>010-2295-2604</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4385,7 +4841,7 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4338-9406</v>
+        <v>010-0976-3128</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
@@ -4407,14 +4863,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7013-1030</v>
+        <v>010-8661-5781</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4429,14 +4885,14 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6028-0532</v>
+        <v>010-1482-4742</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4451,7 +4907,7 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7056-7452</v>
+        <v>010-9195-2241</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
@@ -4473,7 +4929,7 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3856-0921</v>
+        <v>010-1423-7693</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
@@ -4495,14 +4951,14 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6424-8168</v>
+        <v>010-6510-3237</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -4517,14 +4973,14 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3229-9771</v>
+        <v>010-4569-7348</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -4539,7 +4995,7 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8574-1451</v>
+        <v>010-5276-8108</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
@@ -4561,14 +5017,14 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5147-5464</v>
+        <v>010-3220-5622</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -4583,14 +5039,14 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6844-7773</v>
+        <v>010-1876-6046</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -4605,14 +5061,14 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6353-6263</v>
+        <v>010-8410-3400</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -4627,14 +5083,14 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9612-1939</v>
+        <v>010-4794-1612</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -4649,14 +5105,14 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1157-8345</v>
+        <v>010-4836-1285</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -4671,14 +5127,14 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1210-4794</v>
+        <v>010-0505-8562</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -4693,7 +5149,7 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8520-5666</v>
+        <v>010-1485-8196</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
@@ -4715,14 +5171,14 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5900-3316</v>
+        <v>010-3599-4475</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -4737,14 +5193,14 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6590-8073</v>
+        <v>010-7337-9524</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -4759,14 +5215,14 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4276-7652</v>
+        <v>010-6801-7945</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -4781,14 +5237,14 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5608-9020</v>
+        <v>010-9980-8863</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -4803,14 +5259,14 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1115-6663</v>
+        <v>010-1232-9236</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -4825,14 +5281,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7645-4840</v>
+        <v>010-1304-3947</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -4847,14 +5303,14 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8768-7659</v>
+        <v>010-9131-7336</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -4869,14 +5325,14 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1598-9155</v>
+        <v>010-4437-5637</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -4891,14 +5347,14 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5523-6323</v>
+        <v>010-5439-9730</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -4913,14 +5369,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4456-7943</v>
+        <v>010-5467-6641</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -4935,14 +5391,14 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2759-5632</v>
+        <v>010-1619-8250</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -4957,14 +5413,14 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5695-6317</v>
+        <v>010-4761-7682</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -4979,7 +5435,7 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1304-2824</v>
+        <v>010-5803-3101</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
@@ -5001,14 +5457,14 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7020-8786</v>
+        <v>010-1133-0661</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -5023,14 +5479,14 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4819-2910</v>
+        <v>010-5218-8037</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -5045,14 +5501,14 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9533-3490</v>
+        <v>010-2741-2581</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5067,14 +5523,14 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3845-0122</v>
+        <v>010-2261-4249</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5089,14 +5545,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8105-1834</v>
+        <v>010-5083-8142</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5111,14 +5567,14 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6295-9445</v>
+        <v>010-7527-3569</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5133,14 +5589,14 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0587-1154</v>
+        <v>010-1398-3378</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5155,14 +5611,14 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4946-7401</v>
+        <v>010-1636-3038</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5177,14 +5633,14 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4552-1220</v>
+        <v>010-2813-1942</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5199,14 +5655,14 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5261-9263</v>
+        <v>010-6810-3552</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -5221,7 +5677,7 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4971-1284</v>
+        <v>010-1638-4728</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
@@ -5243,14 +5699,14 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3391-5762</v>
+        <v>010-6466-6245</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5265,7 +5721,7 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(100000,99999999),"-0000-0000")</f>
-        <v>010-5672-3088</v>
+        <v>010-8690-6570</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
@@ -5287,14 +5743,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9041-5776</v>
+        <v>010-2638-1825</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5309,7 +5765,7 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3347-4451</v>
+        <v>010-7957-9066</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
@@ -5331,7 +5787,7 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5308-1543</v>
+        <v>010-7934-9278</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
@@ -5353,7 +5809,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5021-2972</v>
+        <v>010-6930-6145</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
@@ -5375,14 +5831,14 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3626-0614</v>
+        <v>010-9216-5345</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5397,7 +5853,7 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7972-5938</v>
+        <v>010-7574-6352</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
@@ -5419,14 +5875,14 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6886-9658</v>
+        <v>010-2000-1299</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5441,7 +5897,7 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2227-6176</v>
+        <v>010-4455-6025</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
@@ -5463,7 +5919,7 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1726-6195</v>
+        <v>010-5887-4642</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
@@ -5485,7 +5941,7 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3487-7391</v>
+        <v>010-8689-4320</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
@@ -5507,14 +5963,14 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5654-5962</v>
+        <v>010-2896-9236</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -5529,7 +5985,7 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9283-2836</v>
+        <v>010-0491-1174</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
@@ -5551,7 +6007,7 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2044-2096</v>
+        <v>010-7501-5755</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
@@ -5573,14 +6029,14 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7700-2477</v>
+        <v>010-2535-6667</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -5595,14 +6051,14 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3818-2298</v>
+        <v>010-1696-8311</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -5617,14 +6073,14 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8889-2822</v>
+        <v>010-9394-8040</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -5639,14 +6095,14 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4014-2980</v>
+        <v>010-2218-7251</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -5661,14 +6117,14 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6089-7747</v>
+        <v>010-2087-3296</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -5683,14 +6139,14 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7417-9363</v>
+        <v>010-3033-3560</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -5705,14 +6161,14 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2953-5225</v>
+        <v>010-4096-8877</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -5727,7 +6183,7 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0811-4649</v>
+        <v>010-3405-7284</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
@@ -5749,14 +6205,14 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1628-6716</v>
+        <v>010-9585-5398</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -5771,14 +6227,14 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5659-8317</v>
+        <v>010-5279-8848</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -5793,7 +6249,7 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5334-7621</v>
+        <v>010-0579-4182</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
@@ -5815,14 +6271,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8103-6143</v>
+        <v>010-4862-0548</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -5837,14 +6293,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7854-0440</v>
+        <v>010-6657-8636</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -5859,7 +6315,7 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0309-2396</v>
+        <v>010-5954-9547</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
@@ -5881,14 +6337,14 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7867-1102</v>
+        <v>010-2294-7377</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -5903,14 +6359,14 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5432-1630</v>
+        <v>010-3464-3293</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -5925,14 +6381,14 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5790-8431</v>
+        <v>010-0166-1692</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -5947,14 +6403,14 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1649-5378</v>
+        <v>010-8596-9235</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -5969,14 +6425,14 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6778-7793</v>
+        <v>010-6220-3244</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -5991,14 +6447,14 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1316-3683</v>
+        <v>010-0585-8956</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6013,14 +6469,14 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1274-9993</v>
+        <v>010-2261-8209</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6035,372 +6491,2603 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="6" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>77</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:F21" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>69</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B18" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>88</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
+        <v>97</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:F50" ca="1" si="3">RANDBETWEEN(50,100)</f>
+        <v>55</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
+        <v>88</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="4"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:F82" ca="1" si="5">RANDBETWEEN(50,100)</f>
+        <v>89</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="5"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
+        <v>92</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="6"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="6"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
+        <v>72</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="7"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="7"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="7"/>
+        <v>95</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="7"/>
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>403</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:A5">
+    <sortCondition ref="A1:A5"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
     <sheet name="학생정보 (2)" sheetId="3" r:id="rId2"/>
     <sheet name="학생성적정보" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="학과정보" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="446">
   <si>
     <t>국어국문</t>
   </si>
@@ -1358,6 +1358,90 @@
   </si>
   <si>
     <t>D005</t>
+  </si>
+  <si>
+    <t>학과명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이몽룡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성춘향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임꺽정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장영실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태진아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나훈아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관 1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별관 3-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별관 3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT관 1호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1700,7 +1784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1758,7 +1842,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="str">
-        <f>VLOOKUP(F2,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F2,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -1777,13 +1861,13 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="str">
-        <f>VLOOKUP(F3,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F3,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -1802,13 +1886,13 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
       <c r="G4" t="str">
-        <f>VLOOKUP(F4,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F4,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -1833,7 +1917,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="str">
-        <f>VLOOKUP(F5,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F5,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -1852,13 +1936,13 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
       <c r="G6" t="str">
-        <f>VLOOKUP(F6,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F6,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -1877,13 +1961,13 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
       <c r="G7" t="str">
-        <f>VLOOKUP(F7,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F7,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -1902,13 +1986,13 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP(F8,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F8,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -1927,13 +2011,13 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP(F9,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F9,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -1952,13 +2036,13 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="str">
-        <f>VLOOKUP(F10,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F10,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -1983,7 +2067,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="str">
-        <f>VLOOKUP(F11,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F11,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2008,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="str">
-        <f>VLOOKUP(F12,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F12,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2027,13 +2111,13 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
       <c r="G13" t="str">
-        <f>VLOOKUP(F13,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F13,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2052,13 +2136,13 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
       </c>
       <c r="G14" t="str">
-        <f>VLOOKUP(F14,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F14,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2077,13 +2161,13 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="str">
-        <f>VLOOKUP(F15,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F15,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2102,13 +2186,13 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
       <c r="G16" t="str">
-        <f>VLOOKUP(F16,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F16,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2127,13 +2211,13 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
       <c r="G17" t="str">
-        <f>VLOOKUP(F17,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F17,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2152,13 +2236,13 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
       <c r="G18" t="str">
-        <f>VLOOKUP(F18,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F18,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2177,13 +2261,13 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19" t="str">
-        <f>VLOOKUP(F19,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F19,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2202,13 +2286,13 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="str">
-        <f>VLOOKUP(F20,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F20,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2227,13 +2311,13 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
       <c r="G21" t="str">
-        <f>VLOOKUP(F21,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F21,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2258,7 +2342,7 @@
         <v>48</v>
       </c>
       <c r="G22" t="str">
-        <f>VLOOKUP(F22,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F22,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2277,13 +2361,13 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
       <c r="G23" t="str">
-        <f>VLOOKUP(F23,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F23,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2302,13 +2386,13 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
       </c>
       <c r="G24" t="str">
-        <f>VLOOKUP(F24,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F24,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2333,7 +2417,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="str">
-        <f>VLOOKUP(F25,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F25,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2352,13 +2436,13 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
       </c>
       <c r="G26" t="str">
-        <f>VLOOKUP(F26,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F26,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2383,7 +2467,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="str">
-        <f>VLOOKUP(F27,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F27,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2402,13 +2486,13 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="G28" t="str">
-        <f>VLOOKUP(F28,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F28,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2433,7 +2517,7 @@
         <v>5</v>
       </c>
       <c r="G29" t="str">
-        <f>VLOOKUP(F29,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F29,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2458,7 +2542,7 @@
         <v>5</v>
       </c>
       <c r="G30" t="str">
-        <f>VLOOKUP(F30,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F30,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2477,13 +2561,13 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
       <c r="G31" t="str">
-        <f>VLOOKUP(F31,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F31,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2502,13 +2586,13 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32" t="str">
-        <f>VLOOKUP(F32,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F32,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2527,13 +2611,13 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
       <c r="G33" t="str">
-        <f>VLOOKUP(F33,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F33,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2552,13 +2636,13 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" t="str">
-        <f>VLOOKUP(F34,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F34,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2583,7 +2667,7 @@
         <v>48</v>
       </c>
       <c r="G35" t="str">
-        <f>VLOOKUP(F35,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F35,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2608,7 +2692,7 @@
         <v>10</v>
       </c>
       <c r="G36" t="str">
-        <f>VLOOKUP(F36,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F36,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2627,13 +2711,13 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="G37" t="str">
-        <f>VLOOKUP(F37,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F37,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2652,13 +2736,13 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
       <c r="G38" t="str">
-        <f>VLOOKUP(F38,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F38,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2677,13 +2761,13 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="G39" t="str">
-        <f>VLOOKUP(F39,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F39,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2702,13 +2786,13 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
       <c r="G40" t="str">
-        <f>VLOOKUP(F40,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F40,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -2727,13 +2811,13 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
       <c r="G41" t="str">
-        <f>VLOOKUP(F41,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F41,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2752,13 +2836,13 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
       <c r="G42" t="str">
-        <f>VLOOKUP(F42,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F42,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2783,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="str">
-        <f>VLOOKUP(F43,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F43,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2802,13 +2886,13 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
       <c r="G44" t="str">
-        <f>VLOOKUP(F44,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F44,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2827,13 +2911,13 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
       <c r="G45" t="str">
-        <f>VLOOKUP(F45,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F45,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -2852,13 +2936,13 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
       </c>
       <c r="G46" t="str">
-        <f>VLOOKUP(F46,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F46,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2877,13 +2961,13 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
       <c r="G47" t="str">
-        <f>VLOOKUP(F47,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F47,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2902,13 +2986,13 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
       </c>
       <c r="G48" t="str">
-        <f>VLOOKUP(F48,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F48,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -2927,13 +3011,13 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
       <c r="G49" t="str">
-        <f>VLOOKUP(F49,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F49,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -2952,13 +3036,13 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
       <c r="G50" t="str">
-        <f>VLOOKUP(F50,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F50,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -2977,13 +3061,13 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
       <c r="G51" t="str">
-        <f>VLOOKUP(F51,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F51,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3002,13 +3086,13 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
       <c r="G52" t="str">
-        <f>VLOOKUP(F52,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F52,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3027,13 +3111,13 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
       <c r="G53" t="str">
-        <f>VLOOKUP(F53,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F53,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3052,13 +3136,13 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
       </c>
       <c r="G54" t="str">
-        <f>VLOOKUP(F54,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F54,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3077,13 +3161,13 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
       <c r="G55" t="str">
-        <f>VLOOKUP(F55,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F55,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3102,13 +3186,13 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
       </c>
       <c r="G56" t="str">
-        <f>VLOOKUP(F56,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F56,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3133,7 +3217,7 @@
         <v>48</v>
       </c>
       <c r="G57" t="str">
-        <f>VLOOKUP(F57,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F57,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3152,13 +3236,13 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
       </c>
       <c r="G58" t="str">
-        <f>VLOOKUP(F58,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F58,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3177,13 +3261,13 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
       </c>
       <c r="G59" t="str">
-        <f>VLOOKUP(F59,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F59,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3202,13 +3286,13 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
       <c r="G60" t="str">
-        <f>VLOOKUP(F60,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F60,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3227,13 +3311,13 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
       <c r="G61" t="str">
-        <f>VLOOKUP(F61,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F61,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3252,13 +3336,13 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
       <c r="G62" t="str">
-        <f>VLOOKUP(F62,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F62,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3277,13 +3361,13 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
       <c r="G63" t="str">
-        <f>VLOOKUP(F63,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F63,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3302,13 +3386,13 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
       <c r="G64" t="str">
-        <f>VLOOKUP(F64,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F64,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3333,7 +3417,7 @@
         <v>48</v>
       </c>
       <c r="G65" t="str">
-        <f>VLOOKUP(F65,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F65,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3352,13 +3436,13 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
       </c>
       <c r="G66" t="str">
-        <f>VLOOKUP(F66,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F66,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3377,13 +3461,13 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
       </c>
       <c r="G67" t="str">
-        <f>VLOOKUP(F67,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F67,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3402,13 +3486,13 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
       <c r="G68" t="str">
-        <f>VLOOKUP(F68,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F68,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3427,13 +3511,13 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
       <c r="G69" t="str">
-        <f>VLOOKUP(F69,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F69,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3452,13 +3536,13 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
       <c r="G70" t="str">
-        <f>VLOOKUP(F70,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F70,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -3477,13 +3561,13 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
       </c>
       <c r="G71" t="str">
-        <f>VLOOKUP(F71,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F71,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3502,13 +3586,13 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
       </c>
       <c r="G72" t="str">
-        <f>VLOOKUP(F72,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F72,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3527,13 +3611,13 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
       </c>
       <c r="G73" t="str">
-        <f>VLOOKUP(F73,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F73,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3552,13 +3636,13 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
       <c r="G74" t="str">
-        <f>VLOOKUP(F74,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F74,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3577,13 +3661,13 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
       <c r="G75" t="str">
-        <f>VLOOKUP(F75,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F75,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -3602,13 +3686,13 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
       </c>
       <c r="G76" t="str">
-        <f>VLOOKUP(F76,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F76,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3633,7 +3717,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="str">
-        <f>VLOOKUP(F77,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F77,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3652,13 +3736,13 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
       <c r="G78" t="str">
-        <f>VLOOKUP(F78,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F78,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3677,13 +3761,13 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
       </c>
       <c r="G79" t="str">
-        <f>VLOOKUP(F79,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F79,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3702,13 +3786,13 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
       </c>
       <c r="G80" t="str">
-        <f>VLOOKUP(F80,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F80,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3727,13 +3811,13 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
       <c r="G81" t="str">
-        <f>VLOOKUP(F81,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F81,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3752,13 +3836,13 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
       <c r="G82" t="str">
-        <f>VLOOKUP(F82,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F82,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3777,13 +3861,13 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
       <c r="G83" t="str">
-        <f>VLOOKUP(F83,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F83,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3802,13 +3886,13 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
       <c r="G84" t="str">
-        <f>VLOOKUP(F84,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F84,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3827,13 +3911,13 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
       <c r="G85" t="str">
-        <f>VLOOKUP(F85,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F85,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3852,13 +3936,13 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
       </c>
       <c r="G86" t="str">
-        <f>VLOOKUP(F86,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F86,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -3877,13 +3961,13 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
       <c r="G87" t="str">
-        <f>VLOOKUP(F87,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F87,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3908,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="str">
-        <f>VLOOKUP(F88,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F88,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -3927,13 +4011,13 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
       <c r="G89" t="str">
-        <f>VLOOKUP(F89,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F89,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3952,13 +4036,13 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
       <c r="G90" t="str">
-        <f>VLOOKUP(F90,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F90,학과정보!$A$2:$B$6,2)</f>
         <v>D004</v>
       </c>
     </row>
@@ -3983,7 +4067,7 @@
         <v>10</v>
       </c>
       <c r="G91" t="str">
-        <f>VLOOKUP(F91,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F91,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4002,13 +4086,13 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
       <c r="G92" t="str">
-        <f>VLOOKUP(F92,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F92,학과정보!$A$2:$B$6,2)</f>
         <v>D003</v>
       </c>
     </row>
@@ -4027,13 +4111,13 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
       </c>
       <c r="G93" t="str">
-        <f>VLOOKUP(F93,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F93,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4052,13 +4136,13 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
       <c r="G94" t="str">
-        <f>VLOOKUP(F94,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F94,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4077,13 +4161,13 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
       <c r="G95" t="str">
-        <f>VLOOKUP(F95,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F95,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4108,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="str">
-        <f>VLOOKUP(F96,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F96,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4133,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="str">
-        <f>VLOOKUP(F97,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F97,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4158,7 +4242,7 @@
         <v>10</v>
       </c>
       <c r="G98" t="str">
-        <f>VLOOKUP(F98,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F98,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4177,13 +4261,13 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
       <c r="G99" t="str">
-        <f>VLOOKUP(F99,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F99,학과정보!$A$2:$B$6,2)</f>
         <v>D005</v>
       </c>
     </row>
@@ -4202,13 +4286,13 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
       <c r="G100" t="str">
-        <f>VLOOKUP(F100,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F100,학과정보!$A$2:$B$6,2)</f>
         <v>D001</v>
       </c>
     </row>
@@ -4227,13 +4311,13 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
       </c>
       <c r="G101" t="str">
-        <f>VLOOKUP(F101,Sheet1!$A$1:$B$5,2)</f>
+        <f>VLOOKUP(F101,학과정보!$A$2:$B$6,2)</f>
         <v>D002</v>
       </c>
     </row>
@@ -4248,8 +4332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4291,14 +4375,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(100000,99999999),"-0000-0000")</f>
-        <v>010-3088-2988</v>
+        <v>010-3988-6957</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -4313,14 +4397,14 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(100000,99999999),"-0000-0000")</f>
-        <v>010-2049-3299</v>
+        <v>010-0692-1808</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>397</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -4335,14 +4419,14 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6861-9593</v>
+        <v>010-1740-4776</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>393</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -4357,14 +4441,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1909-2004</v>
+        <v>010-6089-6159</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>389</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -4379,7 +4463,7 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0538-0229</v>
+        <v>010-5709-7497</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>385</v>
@@ -4401,14 +4485,14 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3452-6413</v>
+        <v>010-7263-9355</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>381</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -4423,14 +4507,14 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1659-2101</v>
+        <v>010-2979-8483</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>377</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -4445,7 +4529,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0404-2398</v>
+        <v>010-5896-1325</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>373</v>
@@ -4467,14 +4551,14 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3943-8769</v>
+        <v>010-1542-3629</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>369</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4489,7 +4573,7 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3632-7263</v>
+        <v>010-7724-3808</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>365</v>
@@ -4511,7 +4595,7 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3450-7027</v>
+        <v>010-7228-6298</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>361</v>
@@ -4533,14 +4617,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3669-3212</v>
+        <v>010-5787-4119</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>357</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4555,14 +4639,14 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9948-1343</v>
+        <v>010-9674-8402</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>353</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4577,14 +4661,14 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8848-2252</v>
+        <v>010-9238-8258</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4599,14 +4683,14 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3204-4105</v>
+        <v>010-7607-9425</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>345</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4621,14 +4705,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0462-6054</v>
+        <v>010-1674-7291</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4643,14 +4727,14 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1761-0431</v>
+        <v>010-2667-1288</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4665,7 +4749,7 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0102-3611</v>
+        <v>010-7087-5413</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
@@ -4687,14 +4771,14 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6079-2081</v>
+        <v>010-1089-4767</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4709,14 +4793,14 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5227-4671</v>
+        <v>010-2413-9911</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4731,7 +4815,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7653-5705</v>
+        <v>010-2694-8273</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
@@ -4753,14 +4837,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0245-3380</v>
+        <v>010-3544-2836</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4775,14 +4859,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9943-5686</v>
+        <v>010-3518-7954</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4797,14 +4881,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1368-2483</v>
+        <v>010-7500-5098</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4819,14 +4903,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2295-2604</v>
+        <v>010-8530-8917</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4841,14 +4925,14 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0976-3128</v>
+        <v>010-5635-7438</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4863,14 +4947,14 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8661-5781</v>
+        <v>010-7337-4374</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4885,14 +4969,14 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1482-4742</v>
+        <v>010-4345-4912</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4907,14 +4991,14 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9195-2241</v>
+        <v>010-7503-5869</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4929,14 +5013,14 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1423-7693</v>
+        <v>010-9456-2619</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -4951,14 +5035,14 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6510-3237</v>
+        <v>010-2622-2763</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -4973,7 +5057,7 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4569-7348</v>
+        <v>010-3412-6654</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
@@ -4995,7 +5079,7 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5276-8108</v>
+        <v>010-4614-4503</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
@@ -5017,14 +5101,14 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3220-5622</v>
+        <v>010-3702-8382</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -5039,7 +5123,7 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1876-6046</v>
+        <v>010-9161-1027</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
@@ -5061,14 +5145,14 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8410-3400</v>
+        <v>010-2495-6822</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -5083,14 +5167,14 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4794-1612</v>
+        <v>010-6290-3107</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -5105,7 +5189,7 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4836-1285</v>
+        <v>010-9815-2573</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
@@ -5127,14 +5211,14 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0505-8562</v>
+        <v>010-0401-4062</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -5149,14 +5233,14 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1485-8196</v>
+        <v>010-8756-0951</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -5171,14 +5255,14 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3599-4475</v>
+        <v>010-0228-3605</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -5193,14 +5277,14 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7337-9524</v>
+        <v>010-2527-4885</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -5215,14 +5299,14 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6801-7945</v>
+        <v>010-8770-8935</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -5237,14 +5321,14 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9980-8863</v>
+        <v>010-6846-9435</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -5259,14 +5343,14 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1232-9236</v>
+        <v>010-7087-8418</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -5281,14 +5365,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1304-3947</v>
+        <v>010-5151-6547</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -5303,14 +5387,14 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9131-7336</v>
+        <v>010-6967-9509</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -5325,14 +5409,14 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4437-5637</v>
+        <v>010-7768-8572</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -5347,14 +5431,14 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5439-9730</v>
+        <v>010-2072-2916</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -5369,14 +5453,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5467-6641</v>
+        <v>010-1034-9044</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -5391,7 +5475,7 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1619-8250</v>
+        <v>010-4849-5931</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
@@ -5413,14 +5497,14 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4761-7682</v>
+        <v>010-2001-7657</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -5435,7 +5519,7 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5803-3101</v>
+        <v>010-2663-3531</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
@@ -5457,14 +5541,14 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1133-0661</v>
+        <v>010-9975-1994</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -5479,14 +5563,14 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5218-8037</v>
+        <v>010-9747-2691</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -5501,7 +5585,7 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2741-2581</v>
+        <v>010-6744-0279</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
@@ -5523,14 +5607,14 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2261-4249</v>
+        <v>010-7802-8617</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5545,14 +5629,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5083-8142</v>
+        <v>010-0802-6801</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5567,14 +5651,14 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7527-3569</v>
+        <v>010-8891-7931</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5589,7 +5673,7 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1398-3378</v>
+        <v>010-5109-6082</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
@@ -5611,14 +5695,14 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1636-3038</v>
+        <v>010-5950-0517</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5633,14 +5717,14 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2813-1942</v>
+        <v>010-2608-3046</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5655,7 +5739,7 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6810-3552</v>
+        <v>010-7231-3361</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
@@ -5677,14 +5761,14 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1638-4728</v>
+        <v>010-3439-8764</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5699,7 +5783,7 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6466-6245</v>
+        <v>010-6978-6979</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
@@ -5721,14 +5805,14 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(100000,99999999),"-0000-0000")</f>
-        <v>010-8690-6570</v>
+        <v>010-4514-8502</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5743,14 +5827,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2638-1825</v>
+        <v>010-1703-0617</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5765,14 +5849,14 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7957-9066</v>
+        <v>010-2140-0734</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -5787,14 +5871,14 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7934-9278</v>
+        <v>010-8474-8070</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5809,14 +5893,14 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6930-6145</v>
+        <v>010-5546-7145</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -5831,14 +5915,14 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9216-5345</v>
+        <v>010-7159-2547</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5853,7 +5937,7 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7574-6352</v>
+        <v>010-4392-5089</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
@@ -5875,14 +5959,14 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2000-1299</v>
+        <v>010-0107-1655</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5897,14 +5981,14 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4455-6025</v>
+        <v>010-1717-0639</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5919,7 +6003,7 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5887-4642</v>
+        <v>010-7421-8287</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
@@ -5941,14 +6025,14 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8689-4320</v>
+        <v>010-5963-4127</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -5963,14 +6047,14 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2896-9236</v>
+        <v>010-6676-3572</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -5985,7 +6069,7 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0491-1174</v>
+        <v>010-3578-4042</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
@@ -6007,14 +6091,14 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7501-5755</v>
+        <v>010-7012-9712</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -6029,14 +6113,14 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2535-6667</v>
+        <v>010-7599-5139</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -6051,14 +6135,14 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1696-8311</v>
+        <v>010-9443-9745</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -6073,14 +6157,14 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9394-8040</v>
+        <v>010-0282-8718</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -6095,14 +6179,14 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2218-7251</v>
+        <v>010-5547-3989</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -6117,14 +6201,14 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2087-3296</v>
+        <v>010-7647-1192</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -6139,14 +6223,14 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3033-3560</v>
+        <v>010-2516-6153</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -6161,7 +6245,7 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4096-8877</v>
+        <v>010-5108-4338</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
@@ -6183,14 +6267,14 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3405-7284</v>
+        <v>010-0728-7587</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -6205,7 +6289,7 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9585-5398</v>
+        <v>010-6213-0157</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
@@ -6227,7 +6311,7 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5279-8848</v>
+        <v>010-1151-5845</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
@@ -6249,14 +6333,14 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0579-4182</v>
+        <v>010-8616-4116</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -6271,14 +6355,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4862-0548</v>
+        <v>010-9292-7723</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -6293,14 +6377,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6657-8636</v>
+        <v>010-4620-6197</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -6315,7 +6399,7 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5954-9547</v>
+        <v>010-1918-2669</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
@@ -6337,14 +6421,14 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2294-7377</v>
+        <v>010-8241-2137</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -6359,14 +6443,14 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3464-3293</v>
+        <v>010-8932-5252</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -6381,7 +6465,7 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0166-1692</v>
+        <v>010-3875-3382</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
@@ -6403,7 +6487,7 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8596-9235</v>
+        <v>010-7704-1520</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
@@ -6425,14 +6509,14 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6220-3244</v>
+        <v>010-1442-1505</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -6447,14 +6531,14 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0585-8956</v>
+        <v>010-2330-1245</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6469,14 +6553,14 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2261-8209</v>
+        <v>010-1069-9039</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6528,23 +6612,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F21" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6553,7 +6637,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B18" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
@@ -6561,15 +6645,15 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6578,23 +6662,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6603,23 +6687,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
         <v>71</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6628,23 +6712,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6653,23 +6737,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6678,23 +6762,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6703,23 +6787,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6728,23 +6812,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6753,19 +6837,19 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
@@ -6778,23 +6862,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6803,23 +6887,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6828,23 +6912,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>96</v>
-      </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6853,23 +6937,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6878,23 +6962,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6903,19 +6987,19 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
@@ -6928,23 +7012,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6953,19 +7037,19 @@
       </c>
       <c r="B19">
         <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
         <v>60</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
@@ -6978,23 +7062,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7003,23 +7087,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="0"/>
         <v>81</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="0"/>
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7032,19 +7116,19 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7053,23 +7137,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
         <v>87</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ca="1" si="2"/>
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7078,23 +7162,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="2"/>
         <v>83</v>
       </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="2"/>
-        <v>52</v>
-      </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7103,23 +7187,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7128,23 +7212,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7153,23 +7237,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7178,23 +7262,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -7203,23 +7287,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -7228,23 +7312,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7253,23 +7337,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7278,15 +7362,15 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
@@ -7294,7 +7378,7 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7303,23 +7387,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7328,23 +7412,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7353,23 +7437,23 @@
       </c>
       <c r="B35">
         <f t="shared" ref="B35:F50" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7378,23 +7462,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7403,23 +7487,23 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -7428,23 +7512,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7453,23 +7537,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="3"/>
         <v>55</v>
       </c>
-      <c r="D39">
-        <f t="shared" ca="1" si="3"/>
-        <v>55</v>
-      </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7478,23 +7562,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7503,23 +7587,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7528,23 +7612,23 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7553,23 +7637,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7578,23 +7662,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7603,23 +7687,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7628,23 +7712,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="3"/>
         <v>89</v>
-      </c>
-      <c r="F46">
-        <f t="shared" ca="1" si="3"/>
-        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -7653,23 +7737,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="3"/>
         <v>87</v>
-      </c>
-      <c r="D47">
-        <f t="shared" ca="1" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="E47">
-        <f t="shared" ca="1" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="F47">
-        <f t="shared" ca="1" si="3"/>
-        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7678,23 +7762,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7703,23 +7787,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7728,23 +7812,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7753,23 +7837,23 @@
       </c>
       <c r="B51">
         <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -7778,23 +7862,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7803,23 +7887,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7828,23 +7912,23 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7853,23 +7937,23 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -7878,23 +7962,23 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -7903,15 +7987,15 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
@@ -7919,7 +8003,7 @@
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -7928,23 +8012,23 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -7953,23 +8037,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -7978,19 +8062,19 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
@@ -8003,23 +8087,23 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8028,23 +8112,23 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8053,23 +8137,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -8078,23 +8162,23 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8103,23 +8187,23 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -8128,23 +8212,23 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -8153,23 +8237,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F82" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8178,23 +8262,23 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8203,23 +8287,23 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8228,23 +8312,23 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -8253,23 +8337,23 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -8278,23 +8362,23 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8303,7 +8387,7 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
@@ -8311,15 +8395,15 @@
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -8328,23 +8412,23 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -8353,15 +8437,15 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
@@ -8369,7 +8453,7 @@
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8378,15 +8462,15 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
@@ -8394,7 +8478,7 @@
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -8403,23 +8487,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8428,23 +8512,23 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -8453,23 +8537,23 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -8478,23 +8562,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8503,23 +8587,23 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -8528,23 +8612,23 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -8553,23 +8637,23 @@
       </c>
       <c r="B83">
         <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8578,23 +8662,23 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8603,23 +8687,23 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -8628,23 +8712,23 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -8653,23 +8737,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -8678,7 +8762,7 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
@@ -8686,15 +8770,15 @@
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8703,23 +8787,23 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -8728,23 +8812,23 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -8757,19 +8841,19 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -8778,23 +8862,23 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -8803,23 +8887,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -8828,23 +8912,23 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -8853,11 +8937,11 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="6"/>
@@ -8865,11 +8949,11 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -8878,23 +8962,23 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -8903,23 +8987,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -8928,23 +9012,23 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -8953,23 +9037,23 @@
       </c>
       <c r="B99">
         <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -8978,23 +9062,23 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -9003,23 +9087,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -9031,55 +9115,142 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" t="str">
+        <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
+        <v>062-693-6191</v>
+      </c>
+      <c r="F2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
+        <v>062-940-7056</v>
+      </c>
+      <c r="F3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>423</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-787-4719</v>
+      </c>
+      <c r="F4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-365-3891</v>
+      </c>
+      <c r="F5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>424</v>
+      </c>
+      <c r="C6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-798-1120</v>
+      </c>
+      <c r="F6" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
@@ -1784,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -4332,7 +4332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(100000,99999999),"-0000-0000")</f>
-        <v>010-3988-6957</v>
+        <v>010-4355-5319</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
@@ -4397,14 +4397,14 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="1">"010"&amp;TEXT(RANDBETWEEN(100000,99999999),"-0000-0000")</f>
-        <v>010-0692-1808</v>
+        <v>010-4550-1045</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>397</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -4419,14 +4419,14 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1740-4776</v>
+        <v>010-3274-8244</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>393</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -4441,14 +4441,14 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6089-6159</v>
+        <v>010-4159-1236</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>389</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -4463,14 +4463,14 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5709-7497</v>
+        <v>010-1784-1710</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>385</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7263-9355</v>
+        <v>010-5752-3576</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>381</v>
@@ -4507,14 +4507,14 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2979-8483</v>
+        <v>010-2150-0785</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>377</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -4529,14 +4529,14 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5896-1325</v>
+        <v>010-8001-2660</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>373</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4551,14 +4551,14 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1542-3629</v>
+        <v>010-1389-9903</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>369</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7724-3808</v>
+        <v>010-8610-0697</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>365</v>
@@ -4595,14 +4595,14 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7228-6298</v>
+        <v>010-7536-6830</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>361</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4617,14 +4617,14 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5787-4119</v>
+        <v>010-0754-7371</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>357</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4639,14 +4639,14 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9674-8402</v>
+        <v>010-5075-5227</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>353</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4661,14 +4661,14 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9238-8258</v>
+        <v>010-9061-9987</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4683,14 +4683,14 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7607-9425</v>
+        <v>010-9231-0695</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>345</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4705,14 +4705,14 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1674-7291</v>
+        <v>010-9741-9774</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4727,14 +4727,14 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2667-1288</v>
+        <v>010-2526-3322</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4749,14 +4749,14 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7087-5413</v>
+        <v>010-6014-0503</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4771,14 +4771,14 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1089-4767</v>
+        <v>010-1000-7985</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4793,14 +4793,14 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2413-9911</v>
+        <v>010-6088-2469</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>325</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4815,14 +4815,14 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2694-8273</v>
+        <v>010-7280-7659</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>321</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -4837,14 +4837,14 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3544-2836</v>
+        <v>010-0434-3196</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4859,14 +4859,14 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3518-7954</v>
+        <v>010-1777-9875</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4881,14 +4881,14 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7500-5098</v>
+        <v>010-3145-6514</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4903,14 +4903,14 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8530-8917</v>
+        <v>010-2343-0370</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4925,14 +4925,14 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5635-7438</v>
+        <v>010-3950-1431</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7337-4374</v>
+        <v>010-2893-8687</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -4969,14 +4969,14 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4345-4912</v>
+        <v>010-4408-6152</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>293</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7503-5869</v>
+        <v>010-2065-3383</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>289</v>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9456-2619</v>
+        <v>010-4434-5189</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>285</v>
@@ -5035,14 +5035,14 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2622-2763</v>
+        <v>010-4645-3538</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -5057,14 +5057,14 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3412-6654</v>
+        <v>010-6344-4591</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -5079,14 +5079,14 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4614-4503</v>
+        <v>010-2593-2467</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3702-8382</v>
+        <v>010-7702-6879</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>269</v>
@@ -5123,14 +5123,14 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9161-1027</v>
+        <v>010-8218-0508</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -5145,14 +5145,14 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2495-6822</v>
+        <v>010-3520-8193</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -5167,14 +5167,14 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6290-3107</v>
+        <v>010-4239-9844</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -5189,14 +5189,14 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9815-2573</v>
+        <v>010-6662-1959</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0401-4062</v>
+        <v>010-2376-5453</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>249</v>
@@ -5233,14 +5233,14 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8756-0951</v>
+        <v>010-3088-3870</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0228-3605</v>
+        <v>010-6650-4987</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>241</v>
@@ -5277,14 +5277,14 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2527-4885</v>
+        <v>010-7807-3774</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8770-8935</v>
+        <v>010-4502-4377</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>233</v>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6846-9435</v>
+        <v>010-6558-7061</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>229</v>
@@ -5343,14 +5343,14 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7087-8418</v>
+        <v>010-0226-5250</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -5365,14 +5365,14 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5151-6547</v>
+        <v>010-6976-9709</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6967-9509</v>
+        <v>010-2472-8507</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>217</v>
@@ -5409,14 +5409,14 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7768-8572</v>
+        <v>010-2380-8120</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>213</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2072-2916</v>
+        <v>010-2726-9130</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>209</v>
@@ -5453,14 +5453,14 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1034-9044</v>
+        <v>010-0216-0010</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -5475,14 +5475,14 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4849-5931</v>
+        <v>010-9883-4959</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -5497,14 +5497,14 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2001-7657</v>
+        <v>010-6536-4028</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -5519,14 +5519,14 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2663-3531</v>
+        <v>010-0045-2107</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -5541,14 +5541,14 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9975-1994</v>
+        <v>010-6422-3147</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -5563,14 +5563,14 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9747-2691</v>
+        <v>010-6695-2910</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>185</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -5585,14 +5585,14 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6744-0279</v>
+        <v>010-7019-4991</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7802-8617</v>
+        <v>010-6810-2722</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>177</v>
@@ -5629,14 +5629,14 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-0802-6801</v>
+        <v>010-3314-8656</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5651,14 +5651,14 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8891-7931</v>
+        <v>010-7343-6984</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5673,14 +5673,14 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5109-6082</v>
+        <v>010-6719-5451</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5695,14 +5695,14 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5950-0517</v>
+        <v>010-0819-3139</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5717,14 +5717,14 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2608-3046</v>
+        <v>010-9843-6151</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7231-3361</v>
+        <v>010-0484-1277</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>153</v>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3439-8764</v>
+        <v>010-0261-7396</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>149</v>
@@ -5783,14 +5783,14 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6978-6979</v>
+        <v>010-6611-7612</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5805,14 +5805,14 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="3">"010"&amp;TEXT(RANDBETWEEN(100000,99999999),"-0000-0000")</f>
-        <v>010-4514-8502</v>
+        <v>010-4345-9536</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5827,14 +5827,14 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1703-0617</v>
+        <v>010-6615-2097</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5849,14 +5849,14 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2140-0734</v>
+        <v>010-5963-1301</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8474-8070</v>
+        <v>010-1695-4711</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
@@ -5893,14 +5893,14 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5546-7145</v>
+        <v>010-9381-5069</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -5915,14 +5915,14 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7159-2547</v>
+        <v>010-4996-7756</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5937,14 +5937,14 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4392-5089</v>
+        <v>010-4708-0452</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -5959,14 +5959,14 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0107-1655</v>
+        <v>010-6562-1999</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5981,14 +5981,14 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1717-0639</v>
+        <v>010-0889-4401</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -6003,14 +6003,14 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7421-8287</v>
+        <v>010-8368-2929</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -6025,14 +6025,14 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5963-4127</v>
+        <v>010-1417-5607</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6676-3572</v>
+        <v>010-5482-1086</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>97</v>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3578-4042</v>
+        <v>010-8400-3519</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>93</v>
@@ -6091,14 +6091,14 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7012-9712</v>
+        <v>010-3043-1565</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7599-5139</v>
+        <v>010-9839-5555</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9443-9745</v>
+        <v>010-0821-3321</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>81</v>
@@ -6157,14 +6157,14 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0282-8718</v>
+        <v>010-6330-5200</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -6179,14 +6179,14 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5547-3989</v>
+        <v>010-3945-3131</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -6201,14 +6201,14 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7647-1192</v>
+        <v>010-0527-3520</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -6223,14 +6223,14 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2516-6153</v>
+        <v>010-6557-1246</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -6245,14 +6245,14 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-5108-4338</v>
+        <v>010-9780-0265</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -6267,14 +6267,14 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-0728-7587</v>
+        <v>010-9881-3851</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -6289,14 +6289,14 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-6213-0157</v>
+        <v>010-3757-4332</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1151-5845</v>
+        <v>010-8709-3756</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>49</v>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8616-4116</v>
+        <v>010-7989-8586</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>44</v>
@@ -6355,14 +6355,14 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-9292-7723</v>
+        <v>010-3049-3446</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -6377,14 +6377,14 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-4620-6197</v>
+        <v>010-8697-8487</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1918-2669</v>
+        <v>010-8774-7178</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
@@ -6421,14 +6421,14 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8241-2137</v>
+        <v>010-9483-8222</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -6443,14 +6443,14 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-8932-5252</v>
+        <v>010-0245-1014</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -6465,14 +6465,14 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-3875-3382</v>
+        <v>010-7666-2377</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -6487,14 +6487,14 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-7704-1520</v>
+        <v>010-4685-6370</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -6509,14 +6509,14 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1442-1505</v>
+        <v>010-6094-4043</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -6531,14 +6531,14 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-2330-1245</v>
+        <v>010-5925-1449</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6553,14 +6553,14 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>010-1069-9039</v>
+        <v>010-1234-5201</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6612,23 +6612,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F21" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6637,23 +6637,23 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B18" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6662,23 +6662,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6687,23 +6687,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6712,23 +6712,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6737,23 +6737,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6762,23 +6762,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6787,23 +6787,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6812,19 +6812,19 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
@@ -6837,23 +6837,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
         <v>50</v>
       </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
-      </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6862,23 +6862,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6887,23 +6887,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6912,23 +6912,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
         <v>57</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6937,23 +6937,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6962,23 +6962,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6987,23 +6987,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -7012,23 +7012,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7037,23 +7037,23 @@
       </c>
       <c r="B19">
         <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
         <v>66</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="0"/>
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7062,23 +7062,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7087,23 +7087,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7112,23 +7112,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
         <v>61</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ca="1" si="2"/>
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -7137,23 +7137,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -7162,23 +7162,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -7187,23 +7187,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -7212,23 +7212,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -7237,23 +7237,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -7262,23 +7262,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -7287,23 +7287,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -7312,23 +7312,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7337,23 +7337,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7362,23 +7362,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7387,23 +7387,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -7412,23 +7412,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7437,23 +7437,23 @@
       </c>
       <c r="B35">
         <f t="shared" ref="B35:F50" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -7462,23 +7462,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="3"/>
         <v>81</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ca="1" si="3"/>
-        <v>96</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="F36">
-        <f t="shared" ca="1" si="3"/>
-        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7487,23 +7487,23 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="3"/>
         <v>74</v>
       </c>
-      <c r="D37">
-        <f t="shared" ca="1" si="3"/>
-        <v>71</v>
-      </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -7512,23 +7512,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7537,23 +7537,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7562,23 +7562,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7587,23 +7587,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -7612,23 +7612,23 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="3"/>
         <v>59</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ca="1" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="F42">
-        <f t="shared" ca="1" si="3"/>
-        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7637,23 +7637,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7662,23 +7662,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -7687,23 +7687,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -7712,23 +7712,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -7737,23 +7737,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -7762,23 +7762,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7787,23 +7787,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -7812,23 +7812,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7837,23 +7837,23 @@
       </c>
       <c r="B51">
         <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -7862,23 +7862,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -7887,23 +7887,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7912,23 +7912,23 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -7937,23 +7937,23 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -7962,23 +7962,23 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -7987,7 +7987,7 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
@@ -7995,15 +7995,15 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -8012,23 +8012,23 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -8037,23 +8037,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -8062,23 +8062,23 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8087,23 +8087,23 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -8112,23 +8112,23 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -8137,23 +8137,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -8162,23 +8162,23 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -8187,23 +8187,23 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -8212,23 +8212,23 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -8237,23 +8237,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F82" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -8262,23 +8262,23 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -8287,23 +8287,23 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8312,23 +8312,23 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -8337,23 +8337,23 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -8362,23 +8362,23 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -8387,23 +8387,23 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -8412,23 +8412,23 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -8437,23 +8437,23 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -8462,23 +8462,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -8487,23 +8487,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8512,23 +8512,23 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -8537,23 +8537,23 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -8562,23 +8562,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -8587,23 +8587,23 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -8612,23 +8612,23 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -8637,23 +8637,23 @@
       </c>
       <c r="B83">
         <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -8662,23 +8662,23 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -8687,23 +8687,23 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -8712,23 +8712,23 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -8737,23 +8737,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -8762,23 +8762,23 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -8787,23 +8787,23 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -8812,23 +8812,23 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -8837,23 +8837,23 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -8862,23 +8862,23 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -8887,23 +8887,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -8912,23 +8912,23 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -8937,23 +8937,23 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -8962,23 +8962,23 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -8987,23 +8987,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -9012,23 +9012,23 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -9037,23 +9037,23 @@
       </c>
       <c r="B99">
         <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -9062,23 +9062,23 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -9087,23 +9087,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
-        <v>062-693-6191</v>
+        <v>062-835-4556</v>
       </c>
       <c r="F2" t="s">
         <v>441</v>
@@ -9184,7 +9184,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
-        <v>062-940-7056</v>
+        <v>062-903-2141</v>
       </c>
       <c r="F3" t="s">
         <v>442</v>
@@ -9205,7 +9205,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-787-4719</v>
+        <v>062-902-6284</v>
       </c>
       <c r="F4" t="s">
         <v>443</v>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-365-3891</v>
+        <v>062-605-7461</v>
       </c>
       <c r="F5" t="s">
         <v>444</v>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-798-1120</v>
+        <v>062-574-6961</v>
       </c>
       <c r="F6" t="s">
         <v>445</v>
